--- a/biology/Médecine/Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine/Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine.xlsx
+++ b/biology/Médecine/Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine/Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_laur%C3%A9ats_du_prix_Shanti_Swarup_Bhatnagar_en_m%C3%A9decine</t>
+          <t>Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Prix Shanti Swarup Bhatnagar de sciences et technologie est l'une des plus hautes distinctions scientifiques multidisciplinaires en Inde[1]. Il a été créé en 1958 par le Conseil de recherche scientifique et industrielle, en l'honneur de Shanti Swarup Bhatnagar, son fondateur et directeur et reconnaît l'excellence dans la recherche scientifique en Inde[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Prix Shanti Swarup Bhatnagar de sciences et technologie est l'une des plus hautes distinctions scientifiques multidisciplinaires en Inde. Il a été créé en 1958 par le Conseil de recherche scientifique et industrielle, en l'honneur de Shanti Swarup Bhatnagar, son fondateur et directeur et reconnaît l'excellence dans la recherche scientifique en Inde.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_laur%C3%A9ats_du_prix_Shanti_Swarup_Bhatnagar_en_m%C3%A9decine</t>
+          <t>Liste_des_lauréats_du_prix_Shanti_Swarup_Bhatnagar_en_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
